--- a/Jmetal_Algorithms .xlsx
+++ b/Jmetal_Algorithms .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catarina Carriço\Documents\Iscte\3ºano\ES2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\GitHub\ES2-2018-LIGE-PL-82\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7B316-5D91-45FC-8EAF-EE065C011BEB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C16A1C-FBA8-486F-800D-2CB9EE4E6F89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{7B22BEB7-BE88-42EF-8E3B-B7A398BA13E3}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,41 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
   <si>
     <t>AbYSS</t>
   </si>
   <si>
-    <t>CellDE</t>
-  </si>
-  <si>
-    <t>dMPOSO</t>
-  </si>
-  <si>
     <t>GDE3</t>
   </si>
   <si>
     <t>IBEA</t>
   </si>
   <si>
-    <t>MOCHC</t>
-  </si>
-  <si>
     <t>MOCell</t>
   </si>
   <si>
-    <t>MOEA/D-DE</t>
-  </si>
-  <si>
-    <t>pMOEA/D-DE</t>
-  </si>
-  <si>
     <t>MOEA/D-DRA</t>
   </si>
   <si>
-    <t>NSGA-II</t>
-  </si>
-  <si>
     <t>OMOPSO</t>
   </si>
   <si>
@@ -70,119 +51,239 @@
     <t xml:space="preserve">SMPSO </t>
   </si>
   <si>
-    <t>pSMPSO</t>
-  </si>
-  <si>
-    <t>SMPSOhv</t>
-  </si>
-  <si>
     <t>SPEA2</t>
   </si>
   <si>
     <t>Multi-objetive algorithms</t>
   </si>
   <si>
-    <t>number of parameters</t>
-  </si>
-  <si>
-    <t>type of parameters</t>
-  </si>
-  <si>
-    <t>{6 int, 4 double}</t>
-  </si>
-  <si>
-    <t>{4 int, 2 double}</t>
-  </si>
-  <si>
-    <t>cMOEAD</t>
-  </si>
-  <si>
-    <t>{4 int, 5 double, 1 String}</t>
-  </si>
-  <si>
-    <t>{3 int, 2 String}</t>
-  </si>
-  <si>
-    <t>(Algoritmod que estam no java mas não esta no doc online)</t>
-  </si>
-  <si>
-    <t>FastSMSEMOA</t>
-  </si>
-  <si>
-    <t>{2 int, 5 double}</t>
-  </si>
-  <si>
-    <t>{2 int, 2 double}</t>
-  </si>
-  <si>
     <t>GWASFGA</t>
   </si>
   <si>
-    <t>{2 int, 5 double, 2 boolean, 1 String}</t>
-  </si>
-  <si>
-    <t>{3 int, 4 double}</t>
-  </si>
-  <si>
-    <t>{4 int, 4 double}</t>
-  </si>
-  <si>
-    <t>{5 int, 5 double}</t>
-  </si>
-  <si>
-    <t>{4 int, 5 double, 1 String }</t>
-  </si>
-  <si>
-    <t>{2 int, 4 double}</t>
-  </si>
-  <si>
-    <t>NSGAIIAdaptive</t>
-  </si>
-  <si>
-    <t>{2 int, 6 double}</t>
-  </si>
-  <si>
-    <t>NSGAIIBinary</t>
-  </si>
-  <si>
-    <t>NSGAIIPermutation</t>
-  </si>
-  <si>
-    <t>NSGAIIRandom</t>
-  </si>
-  <si>
-    <t>{3 int, 2 double}</t>
-  </si>
-  <si>
-    <t>{5 int, 5 double, 1 String }</t>
-  </si>
-  <si>
-    <t>pNSGAII</t>
-  </si>
-  <si>
-    <t>{3 int, 4 double }</t>
-  </si>
-  <si>
     <t>RandomSearch</t>
   </si>
   <si>
-    <t>{1 int}</t>
-  </si>
-  <si>
     <t>SMSEMOA</t>
   </si>
   <si>
     <t>WASFGA</t>
   </si>
   <si>
-    <t>{2 int, 4 double, 2 String, 2 boolean }</t>
+    <t>Problem Types</t>
+  </si>
+  <si>
+    <t>Solution Types</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>MOEA/D</t>
+  </si>
+  <si>
+    <t>MOMBI</t>
+  </si>
+  <si>
+    <t>NSGA-III</t>
+  </si>
+  <si>
+    <t>PESA 2</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Single-Objective</t>
+  </si>
+  <si>
+    <t>Coral Reef Optimization</t>
+  </si>
+  <si>
+    <t>Diferencial Evolution</t>
+  </si>
+  <si>
+    <t>Covariance Matrix Adaptation Evolution Strategy</t>
+  </si>
+  <si>
+    <t>Elitist Evolution Stratey</t>
+  </si>
+  <si>
+    <t>Non Elitist Evolution Strategy</t>
+  </si>
+  <si>
+    <t>Generational Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Steady State Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Particles Warm Optimization - PSO2007</t>
+  </si>
+  <si>
+    <t>Particles Warm Optimization - PSO2011</t>
+  </si>
+  <si>
+    <t>Archived based hYbrid Scatter Search Algorithm</t>
+  </si>
+  <si>
+    <t>CellDE45</t>
+  </si>
+  <si>
+    <t>Multi-Objective Differential Evolution Cellular evolutionary algorithm</t>
+  </si>
+  <si>
+    <t>MOPSO with decomposition</t>
+  </si>
+  <si>
+    <t>dMOPSO</t>
+  </si>
+  <si>
+    <t>dMOPSO Measures</t>
+  </si>
+  <si>
+    <t>MOPSO with decomposition. Version using measures</t>
+  </si>
+  <si>
+    <t>Generalized Differential Evolution version 3</t>
+  </si>
+  <si>
+    <t>Global Weighting Achievement Scalarizing Function Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Indicator based Evolutionary Algorithm</t>
+  </si>
+  <si>
+    <t>Multi-Objective Cellular evolutionry algorithm</t>
+  </si>
+  <si>
+    <t>Multiobjective CHC algorithm</t>
+  </si>
+  <si>
+    <t>MOCHC45</t>
+  </si>
+  <si>
+    <t>Multi-Objective Evolutionary Algorithm based on Decomposition with constraints support</t>
+  </si>
+  <si>
+    <t>Multi-Objective Evolutionary Algorithm based on Decomposition</t>
+  </si>
+  <si>
+    <t>Constrain MOEA/D</t>
+  </si>
+  <si>
+    <t>MOEA/D-DD</t>
+  </si>
+  <si>
+    <t>Multi-Objective Evolutionary Algorithm based on Decomposition. Version with Dynamic Resource Allocation</t>
+  </si>
+  <si>
+    <t>MOEA/D-STM</t>
+  </si>
+  <si>
+    <t>Multi-Objective Evolutionary Algorithm based on Decomposition. Version with Stable Matching Model</t>
+  </si>
+  <si>
+    <t>Many-Objective Metaheuristic Based on the R2 Indicator</t>
+  </si>
+  <si>
+    <t>MOMBI2</t>
+  </si>
+  <si>
+    <t>Many-Objective Metaheuristic Based on the R2 Indicator, version 2</t>
+  </si>
+  <si>
+    <t>Nondominated Sorting Genetic Algorithm version II</t>
+  </si>
+  <si>
+    <t>Nondominated Sorting Genetic Algorithm version III</t>
+  </si>
+  <si>
+    <t>NSGA-II45</t>
+  </si>
+  <si>
+    <t>NSGA-II Measures</t>
+  </si>
+  <si>
+    <t>Nondominated Sorting Genetic Algorithm version II. Version using measures</t>
+  </si>
+  <si>
+    <t>ssNSGA-II</t>
+  </si>
+  <si>
+    <t>Nondominated Sorting Genetic Algorithm version II. Steady-state version</t>
+  </si>
+  <si>
+    <t>Optimized MOPSO</t>
+  </si>
+  <si>
+    <t>Pareto-Archived Evolution Strategy</t>
+  </si>
+  <si>
+    <t>Pareto Envelope-based Selection Algorithm</t>
+  </si>
+  <si>
+    <t>Multi-objective random search algorithm</t>
+  </si>
+  <si>
+    <t>Speed contrained Multiobjective PSO</t>
+  </si>
+  <si>
+    <t>SMPSO Measures</t>
+  </si>
+  <si>
+    <t>SMPSO. Version using measures</t>
+  </si>
+  <si>
+    <t>S metric selection EMOA</t>
+  </si>
+  <si>
+    <t>Strength Pareto. Evolutionary Algorithm</t>
+  </si>
+  <si>
+    <t>Weighting Achievement Scalarizing Function Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>WASFGA Measures</t>
+  </si>
+  <si>
+    <t>Weighting Achievement Scalarizing Function Genetic Algorithm. Version using Measures</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>CMAES</t>
+  </si>
+  <si>
+    <t>EES</t>
+  </si>
+  <si>
+    <t>NEES</t>
+  </si>
+  <si>
+    <t>GGA</t>
+  </si>
+  <si>
+    <t>ssGA</t>
+  </si>
+  <si>
+    <t>PWO2007</t>
+  </si>
+  <si>
+    <t>PWO2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,19 +305,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,14 +333,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,358 +656,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B764CDD-9C87-4AAF-B8E6-67AA16063470}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD39"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jmetal_Algorithms .xlsx
+++ b/Jmetal_Algorithms .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\GitHub\ES2-2018-LIGE-PL-82\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C16A1C-FBA8-486F-800D-2CB9EE4E6F89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5A287-4F9E-41E3-9BE2-A2686016A1F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{7B22BEB7-BE88-42EF-8E3B-B7A398BA13E3}"/>
   </bookViews>
@@ -656,241 +656,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B764CDD-9C87-4AAF-B8E6-67AA16063470}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,13 +896,13 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,13 +910,13 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,13 +924,13 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,13 +938,13 @@
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,13 +966,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,13 +980,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,13 +994,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,13 +1008,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,13 +1022,13 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,13 +1036,13 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,13 +1050,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,13 +1078,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1092,13 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,126 +1116,126 @@
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B35" t="s">
-        <v>22</v>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
+      <c r="D35" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>25</v>
+      <c r="D36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>26</v>
+      <c r="D37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
-        <v>22</v>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>27</v>
+      <c r="D38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>28</v>
+      <c r="D39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
-        <v>22</v>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>29</v>
+      <c r="D40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B41" t="s">
-        <v>22</v>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>30</v>
+      <c r="D41" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
-        <v>16</v>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>31</v>
+      <c r="D42" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B43" t="s">
-        <v>16</v>
+      <c r="B43" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>32</v>
+      <c r="D43" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Jmetal_Algorithms .xlsx
+++ b/Jmetal_Algorithms .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\GitHub\ES2-2018-LIGE-PL-82\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5A287-4F9E-41E3-9BE2-A2686016A1F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58901532-02CF-4F76-836B-2F81D7C3DC69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{7B22BEB7-BE88-42EF-8E3B-B7A398BA13E3}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jmetal_Algorithms .xlsx
+++ b/Jmetal_Algorithms .xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\GitHub\ES2-2018-LIGE-PL-82\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58901532-02CF-4F76-836B-2F81D7C3DC69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15574C86-F66C-47DC-A46C-CB42A2680299}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{7B22BEB7-BE88-42EF-8E3B-B7A398BA13E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>AbYSS</t>
   </si>
@@ -277,6 +278,15 @@
   </si>
   <si>
     <t>PWO2011</t>
+  </si>
+  <si>
+    <t>Type B</t>
+  </si>
+  <si>
+    <t>Type A</t>
+  </si>
+  <si>
+    <t>Type C</t>
   </si>
 </sst>
 </file>
@@ -656,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B764CDD-9C87-4AAF-B8E6-67AA16063470}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +680,7 @@
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -681,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,8 +704,11 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -708,8 +721,11 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -722,8 +738,11 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -736,8 +755,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -750,8 +772,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -764,8 +789,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -778,8 +806,11 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -792,8 +823,11 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -806,8 +840,11 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -820,8 +857,11 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -834,8 +874,11 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -848,8 +891,11 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -862,8 +908,11 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -876,8 +925,11 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -890,8 +942,11 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -904,8 +959,11 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -918,8 +976,11 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -932,8 +993,11 @@
       <c r="D19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -946,8 +1010,11 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -960,8 +1027,11 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -974,8 +1044,11 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -988,8 +1061,11 @@
       <c r="D23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1002,8 +1078,11 @@
       <c r="D24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1016,8 +1095,11 @@
       <c r="D25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1112,11 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
@@ -1044,8 +1129,11 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -1058,8 +1146,11 @@
       <c r="D28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -1072,8 +1163,11 @@
       <c r="D29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -1086,8 +1180,11 @@
       <c r="D30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
@@ -1100,19 +1197,22 @@
       <c r="D31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1125,8 +1225,11 @@
       <c r="D35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -1139,8 +1242,11 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1153,8 +1259,11 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -1167,8 +1276,11 @@
       <c r="D38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -1181,8 +1293,11 @@
       <c r="D39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1195,8 +1310,11 @@
       <c r="D40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -1209,8 +1327,11 @@
       <c r="D41" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -1223,8 +1344,11 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
@@ -1236,10 +1360,52 @@
       </c>
       <c r="D43" t="s">
         <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DFF010-B14B-46A8-85C0-0C847E695EB0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>